--- a/Study 3/Shocks/GCAM/NDC_EI - 2085.xlsx
+++ b/Study 3/Shocks/GCAM/NDC_EI - 2085.xlsx
@@ -11482,7 +11482,7 @@
         </is>
       </c>
       <c r="H4" t="n">
-        <v>0.07996677681269083</v>
+        <v>0.07996677681269082</v>
       </c>
     </row>
     <row r="5">
@@ -11602,7 +11602,7 @@
         </is>
       </c>
       <c r="H7" t="n">
-        <v>0.002542472149658803</v>
+        <v>0.002542472149658802</v>
       </c>
     </row>
     <row r="8">
@@ -11762,7 +11762,7 @@
         </is>
       </c>
       <c r="H11" t="n">
-        <v>0.008362925010843309</v>
+        <v>0.008362925010843306</v>
       </c>
     </row>
     <row r="12">
@@ -11802,7 +11802,7 @@
         </is>
       </c>
       <c r="H12" t="n">
-        <v>0.09068970450111637</v>
+        <v>0.09068970450111635</v>
       </c>
     </row>
     <row r="13">
@@ -12082,7 +12082,7 @@
         </is>
       </c>
       <c r="H19" t="n">
-        <v>0.06377293301297797</v>
+        <v>0.06377293301297796</v>
       </c>
     </row>
     <row r="20">
@@ -12122,7 +12122,7 @@
         </is>
       </c>
       <c r="H20" t="n">
-        <v>0.06037349037461724</v>
+        <v>0.06037349037461723</v>
       </c>
     </row>
     <row r="21">
@@ -12242,7 +12242,7 @@
         </is>
       </c>
       <c r="H23" t="n">
-        <v>0.2435581679400969</v>
+        <v>0.2435581679400968</v>
       </c>
     </row>
     <row r="24">
@@ -12402,7 +12402,7 @@
         </is>
       </c>
       <c r="H27" t="n">
-        <v>0.001467478014001821</v>
+        <v>0.00146747801400182</v>
       </c>
     </row>
     <row r="28">
@@ -12442,7 +12442,7 @@
         </is>
       </c>
       <c r="H28" t="n">
-        <v>0.03364472081782962</v>
+        <v>0.03364472081782961</v>
       </c>
     </row>
     <row r="29">
@@ -12762,7 +12762,7 @@
         </is>
       </c>
       <c r="H36" t="n">
-        <v>0.2237635544369994</v>
+        <v>0.2237635544369993</v>
       </c>
     </row>
     <row r="37">
@@ -12882,7 +12882,7 @@
         </is>
       </c>
       <c r="H39" t="n">
-        <v>0.3898726221267924</v>
+        <v>0.3898726221267922</v>
       </c>
     </row>
     <row r="40">
